--- a/BackTest/2019-10-19 BackTest HYC.xlsx
+++ b/BackTest/2019-10-19 BackTest HYC.xlsx
@@ -935,7 +935,9 @@
       <c r="J12" t="n">
         <v>0.2799999999999994</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-7.142857142857006</v>
+      </c>
       <c r="L12" t="n">
         <v>6.111</v>
       </c>
@@ -990,7 +992,9 @@
       <c r="J13" t="n">
         <v>0.3399999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-23.52941176470591</v>
+      </c>
       <c r="L13" t="n">
         <v>6.103</v>
       </c>
@@ -1047,7 +1051,9 @@
       <c r="J14" t="n">
         <v>0.3499999999999996</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-25.7142857142857</v>
+      </c>
       <c r="L14" t="n">
         <v>6.093999999999999</v>
       </c>
@@ -1102,7 +1108,9 @@
       <c r="J15" t="n">
         <v>0.4199999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-4.761904761904661</v>
+      </c>
       <c r="L15" t="n">
         <v>6.092000000000001</v>
       </c>
@@ -1159,7 +1167,9 @@
       <c r="J16" t="n">
         <v>0.4900000000000002</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L16" t="n">
         <v>6.083</v>
       </c>
@@ -1214,7 +1224,9 @@
       <c r="J17" t="n">
         <v>0.5600000000000005</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>7.999999999999993</v>
+      </c>
       <c r="L17" t="n">
         <v>6.086</v>
       </c>
@@ -1271,7 +1283,9 @@
       <c r="J18" t="n">
         <v>0.5600000000000005</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-4.545454545454435</v>
+      </c>
       <c r="L18" t="n">
         <v>6.090000000000001</v>
       </c>
@@ -1326,7 +1340,9 @@
       <c r="J19" t="n">
         <v>0.5600000000000005</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
       <c r="L19" t="n">
         <v>6.088000000000001</v>
       </c>
@@ -1383,7 +1399,9 @@
       <c r="J20" t="n">
         <v>0.5600000000000005</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>15.15151515151505</v>
+      </c>
       <c r="L20" t="n">
         <v>6.095000000000002</v>
       </c>
@@ -1438,7 +1456,9 @@
       <c r="J21" t="n">
         <v>0.5800000000000001</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>6.666666666666508</v>
+      </c>
       <c r="L21" t="n">
         <v>6.102000000000002</v>
       </c>
@@ -1493,7 +1513,9 @@
       <c r="J22" t="n">
         <v>0.5899999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>28.00000000000011</v>
+      </c>
       <c r="L22" t="n">
         <v>6.103000000000002</v>
       </c>
@@ -1551,7 +1573,7 @@
         <v>0.6099999999999994</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.918032786885146</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L23" t="n">
         <v>6.108000000000002</v>
@@ -1610,7 +1632,7 @@
         <v>0.6099999999999994</v>
       </c>
       <c r="K24" t="n">
-        <v>-4.918032786885146</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L24" t="n">
         <v>6.114000000000003</v>
@@ -1665,7 +1687,7 @@
         <v>0.629999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.587301587301556</v>
+        <v>57.14285714285769</v>
       </c>
       <c r="L25" t="n">
         <v>6.115000000000003</v>
@@ -1720,7 +1742,7 @@
         <v>0.629999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.587301587301556</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L26" t="n">
         <v>6.123000000000003</v>
@@ -1775,7 +1797,7 @@
         <v>0.6999999999999993</v>
       </c>
       <c r="K27" t="n">
-        <v>-4.615384615384658</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L27" t="n">
         <v>6.117000000000004</v>
@@ -1830,7 +1852,7 @@
         <v>0.7699999999999996</v>
       </c>
       <c r="K28" t="n">
-        <v>7.042253521126736</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L28" t="n">
         <v>6.118000000000004</v>
@@ -1885,7 +1907,7 @@
         <v>0.7699999999999996</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.538461538461505</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L29" t="n">
         <v>6.119000000000005</v>
@@ -1934,7 +1956,7 @@
         <v>0.7699999999999996</v>
       </c>
       <c r="K30" t="n">
-        <v>14.28571428571428</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L30" t="n">
         <v>6.120000000000005</v>
@@ -1983,7 +2005,7 @@
         <v>0.7699999999999996</v>
       </c>
       <c r="K31" t="n">
-        <v>11.11111111111104</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>6.119000000000005</v>
@@ -2034,7 +2056,7 @@
         <v>0.7699999999999996</v>
       </c>
       <c r="K32" t="n">
-        <v>2.040816326530568</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L32" t="n">
         <v>6.119000000000005</v>
@@ -2085,7 +2107,7 @@
         <v>0.7899999999999991</v>
       </c>
       <c r="K33" t="n">
-        <v>11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>6.119000000000005</v>
@@ -2136,7 +2158,7 @@
         <v>0.7899999999999991</v>
       </c>
       <c r="K34" t="n">
-        <v>13.63636363636377</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L34" t="n">
         <v>6.119000000000005</v>
@@ -2187,7 +2209,7 @@
         <v>0.8099999999999996</v>
       </c>
       <c r="K35" t="n">
-        <v>-7.692307692307762</v>
+        <v>-22.22222222222217</v>
       </c>
       <c r="L35" t="n">
         <v>6.115000000000006</v>
@@ -2238,7 +2260,7 @@
         <v>0.8199999999999994</v>
       </c>
       <c r="K36" t="n">
-        <v>15.15151515151513</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>6.112000000000005</v>
@@ -2289,7 +2311,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.70370370370363</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L37" t="n">
         <v>6.117000000000006</v>
@@ -2340,7 +2362,7 @@
         <v>0.8399999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L38" t="n">
         <v>6.116000000000006</v>
@@ -2391,7 +2413,7 @@
         <v>0.8499999999999996</v>
       </c>
       <c r="K39" t="n">
-        <v>3.448275862068902</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>6.116000000000006</v>
@@ -2442,7 +2464,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>9.677419354838802</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L40" t="n">
         <v>6.118000000000006</v>
@@ -2493,7 +2515,7 @@
         <v>0.8799999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>6.666666666666825</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L41" t="n">
         <v>6.121000000000006</v>
@@ -2544,7 +2566,7 @@
         <v>0.8899999999999997</v>
       </c>
       <c r="K42" t="n">
-        <v>6.666666666666825</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L42" t="n">
         <v>6.123000000000006</v>
@@ -2595,7 +2617,7 @@
         <v>0.8999999999999995</v>
       </c>
       <c r="K43" t="n">
-        <v>17.24137931034477</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L43" t="n">
         <v>6.128000000000005</v>
@@ -2646,7 +2668,7 @@
         <v>0.8999999999999995</v>
       </c>
       <c r="K44" t="n">
-        <v>17.24137931034477</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L44" t="n">
         <v>6.133000000000005</v>
@@ -2697,7 +2719,7 @@
         <v>0.8999999999999995</v>
       </c>
       <c r="K45" t="n">
-        <v>11.11111111111118</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L45" t="n">
         <v>6.140000000000005</v>
@@ -2748,7 +2770,7 @@
         <v>0.8999999999999995</v>
       </c>
       <c r="K46" t="n">
-        <v>11.11111111111118</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L46" t="n">
         <v>6.146000000000004</v>
@@ -2799,7 +2821,7 @@
         <v>0.9099999999999993</v>
       </c>
       <c r="K47" t="n">
-        <v>42.85714285714322</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L47" t="n">
         <v>6.150000000000004</v>
@@ -2850,7 +2872,7 @@
         <v>0.9699999999999998</v>
       </c>
       <c r="K48" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>6.147000000000005</v>
@@ -2901,7 +2923,7 @@
         <v>1.03</v>
       </c>
       <c r="K49" t="n">
-        <v>7.69230769230785</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>6.149000000000004</v>
@@ -2952,7 +2974,7 @@
         <v>1.03</v>
       </c>
       <c r="K50" t="n">
-        <v>7.69230769230785</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L50" t="n">
         <v>6.149000000000004</v>
@@ -3003,7 +3025,7 @@
         <v>1.03</v>
       </c>
       <c r="K51" t="n">
-        <v>7.69230769230785</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>6.148000000000005</v>
@@ -3054,7 +3076,7 @@
         <v>1.03</v>
       </c>
       <c r="K52" t="n">
-        <v>7.69230769230785</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L52" t="n">
         <v>6.148000000000005</v>
